--- a/mi_proyecto_web/uploads/resultados_Scoring.xlsx
+++ b/mi_proyecto_web/uploads/resultados_Scoring.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -38,68 +38,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001AE500"/>
-        <bgColor rgb="001AE500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0027D800"/>
-        <bgColor rgb="0027D800"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0034CB00"/>
-        <bgColor rgb="0034CB00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0053AC00"/>
-        <bgColor rgb="0053AC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005AA500"/>
-        <bgColor rgb="005AA500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00936C00"/>
-        <bgColor rgb="00936C00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00956A00"/>
-        <bgColor rgb="00956A00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A65900"/>
-        <bgColor rgb="00A65900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D92600"/>
-        <bgColor rgb="00D92600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E61900"/>
-        <bgColor rgb="00E61900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F30C00"/>
-        <bgColor rgb="00F30C00"/>
+        <fgColor rgb="00CC3300"/>
+        <bgColor rgb="00CC3300"/>
       </patternFill>
     </fill>
     <fill>
@@ -127,23 +67,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -509,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,70 +455,100 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>provincia</t>
+          <t>código cliente</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>concesionario</t>
+          <t>fiscal name code</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>contacto</t>
+          <t>zona comercial</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>client</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>subsegment</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>año</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mes</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>fecha primer envío</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>nombre</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>apellidos</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>telefono</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>movil</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>responsable</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>email_responsable</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>telefono_responsable</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>incidencias_graves</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>total envios  mes anterior a la pérdida</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>tramo envíos</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>resultado</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>observaciones</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>llamadas</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>telefono_limpio</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>scoring</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>media_intentos_para_contacto</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>media_intentos_para_contacto_positivo</t>
         </is>
@@ -596,681 +556,765 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Teruel</t>
-        </is>
+        <v>277</v>
+      </c>
+      <c r="B2" t="n">
+        <v>42864</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SH CENTRO-CANARIAS</t>
+          <t>E02921898</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JAVIER GARCÍA</t>
+          <t>Zona 4 (Centro)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>javier.garcia.jorge@scania.com</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>629568367</v>
+          <t>Farmacia Fuentelucha</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>609679378</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>JAVIER GÓMEZ</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>javier.gomez@scania.com</t>
+        <v>2023</v>
+      </c>
+      <c r="I2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>FRANCISCO</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Raul Herranz</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>629568367</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.111111111111</v>
+          <t>LUIS COSANO CORDON</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>912191014</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>912191014</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Almería</t>
-        </is>
+        <v>281</v>
+      </c>
+      <c r="B3" t="n">
+        <v>43600</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SH SURESTE</t>
+          <t>B54649678</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sergio Fernandez</t>
+          <t>Zona 5 (Levante)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sergio.fernandez@scania.com</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>687754160</v>
+          <t>Audiben</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>646280354</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Antonio Ponce</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>antonio.ponce@scania.com</t>
+        <v>2024</v>
+      </c>
+      <c r="I3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>NIEVES</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Oscar Martinez</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>687754160</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>85</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.25</v>
+          <t>GIMENO</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>965362400</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>NO CONTESTA</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>965362400</t>
+        </is>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ávila</t>
-        </is>
+        <v>256</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30101</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R.PEINADO</t>
+          <t>B98995020</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>JORGE MARTÍN</t>
+          <t>Zona 5 (Levante)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">carlos.avis@talleres-pablo-garcia.com                 </t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>649825955</v>
+          <t>Wild Balances</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>608380596</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ALFONSO LABIÁN</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>alfonso.labian@rpeinado.com</t>
+        <v>2021</v>
+      </c>
+      <c r="I4" t="n">
+        <v>44256</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>KIKE</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Oscar Martinez</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>649825955</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>79.74683544303798</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.241935483870968</v>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>629634642</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>TELEFONO ERRONEO</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>629634642</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
+        <v>257</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20300</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SH CENTRO-CANARIAS</t>
+          <t>B90089350</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>JAVIER GARCÍA</t>
+          <t>Zona 6 (Sur)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>javier.garcia.jorge@scania.com</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>600480908</v>
+          <t>Crowdence S.L.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Big Clients &lt; 4k/Mes</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>617114973</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>JAVIER GÓMEZ</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>javier.gomez@scania.com</t>
+        <v>2021</v>
+      </c>
+      <c r="I5" t="n">
+        <v>44378</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>JUAN</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Raul Herranz</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>600480908</t>
-        </is>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>67.64705882352942</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.434782608695652</v>
+          <t>QUIROS</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>955287493</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>NO CONTESTA</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>955287493</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Alicante</t>
-        </is>
+        <v>258</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20942</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SCALEVANTE</t>
+          <t>B54585153</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>David Ferri</t>
+          <t>Zona 5 (Levante)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>dferri@scalevante.com</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>687527066</v>
+          <t>Camisetas Economicas, Slu</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>958999142</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Eloy Verdu</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>everdu@scalevante.com</t>
+        <v>2022</v>
+      </c>
+      <c r="I6" t="n">
+        <v>44593</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>AUGUSTO</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Oscar Martinez</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>687527066</t>
-        </is>
-      </c>
-      <c r="M6" s="6" t="n">
-        <v>65</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.538461538461</v>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>96573967791</v>
+      </c>
+      <c r="M6" t="n">
+        <v>17</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>NO CONSIGUE ENTENDER LA WEB PARA HACER LOS ENVÍOS, RELLENAR LOS DATOS
+NO TENÍA COMERCIAL ASIGNADO
+NADIE SE HA PUESTO EN CONTACTO CON ÉL, ESTABA CONTENTO CON NOSOTROS PERO QUIERE QUE ALGUIEN LE INFORME
+O VOLVER A LA WEB ANTERIOR Y CON ESA SI QUE VOLVERÍAN A TRABAJAR CON NOSOTROS
+TRABAJA CON SEUR Y DHL</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Gerona</t>
-        </is>
+        <v>259</v>
+      </c>
+      <c r="B7" t="n">
+        <v>32044</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CAMION GRUP</t>
+          <t>B42692731</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jordi Guso</t>
+          <t>Zona 5 (Levante)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>jordi.guso@camiongrup.com</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>955902000</v>
+          <t>Pharma Shoes Iberia, S.L. - Scholl</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>696895733</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Jordi Guso</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>jordi.guso@camiongrup.com</t>
+        <v>2022</v>
+      </c>
+      <c r="I7" t="n">
+        <v>44593</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Oscar Martinez</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>955902000</t>
-        </is>
-      </c>
-      <c r="M7" s="7" t="n">
-        <v>42.47491638795987</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.338582677165354</v>
+          <t>ANTONIO</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>965279669</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>ILOCALIZABLE</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>965279669</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Lugo</t>
-        </is>
+        <v>260</v>
+      </c>
+      <c r="B8" t="n">
+        <v>32886</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SH NOROESTE</t>
+          <t>46856327Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Diego Alonso</t>
+          <t>Zona 4 (Centro)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>diego.alonso@scania.com</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>626753105</v>
+          <t>Almacenelectricidad.Com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>628820282</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Jorge Luis Alonso Abella</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>jorge.alonso@scania.com</t>
+        <v>2022</v>
+      </c>
+      <c r="I8" t="n">
+        <v>44682</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>FERNANDO</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>626753105</t>
-        </is>
-      </c>
-      <c r="M8" s="8" t="n">
-        <v>41.83445190156599</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.399449035812672</v>
+          <t>AGUADO</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>626280012</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>36.29</t>
+          <t>CONTESTADOR AUTOMATICO</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>626280012</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Guadalajara</t>
-        </is>
+        <v>261</v>
+      </c>
+      <c r="B9" t="n">
+        <v>33316</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SH CENTRO-CANARIAS</t>
+          <t>B21450523</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ANTONIO MARTÍN</t>
+          <t>Zona 6 (Sur)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>antonio.martin@scania.com</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>626178294</v>
+          <t>Enuc</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>955902000</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>CÉSAR LINARES</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>cesar.linares@scania.com</t>
+        <v>2022</v>
+      </c>
+      <c r="I9" t="n">
+        <v>44743</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>JUAN ANTONIO</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Raul Herranz</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>626178294</t>
-        </is>
-      </c>
-      <c r="M9" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.857142857142</v>
+          <t>RAMOS</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>603217655</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>TELEFONO ERRONEO</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>603217655</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Madrid (SH )</t>
-        </is>
+        <v>262</v>
+      </c>
+      <c r="B10" t="n">
+        <v>33176</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SH CENTRO-CANARIAS</t>
+          <t>B01759141</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ANTONIO MARTÍN</t>
+          <t>Zona 5 (Levante)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>antonio.martin@scania.com</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>667224640</v>
+          <t>Jjprime Online</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>630407582</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>CÉSAR LINARES</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>cesar.linares@scania.com</t>
+        <v>2022</v>
+      </c>
+      <c r="I10" t="n">
+        <v>44743</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ALFREDO</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Raul Herranz</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>667224640</t>
-        </is>
-      </c>
-      <c r="M10" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6.666666666666</v>
+          <t>JARA ROBLES</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>693833653</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>NO CONTESTA</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>693833653</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Cuenca</t>
-        </is>
+        <v>263</v>
+      </c>
+      <c r="B11" t="n">
+        <v>40379</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SH CENTRO-CANARIAS</t>
+          <t>B54278825</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CÉSAR LINARES</t>
+          <t>Zona 5 (Levante)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>cesar.linares@scania.com</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>687396555</v>
+          <t>40 Grados Lenceria S.L</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>608380596</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>CÉSAR LINARES</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>cesar.linares@scania.com</t>
+        <v>2022</v>
+      </c>
+      <c r="I11" t="n">
+        <v>44805</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Raul Herranz</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>687396555</t>
-        </is>
-      </c>
-      <c r="M11" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10</v>
+          <t>HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>667670384</v>
+      </c>
+      <c r="M11" t="n">
+        <v>206</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>TELEFONO ERRONEO</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>ya no trabaja en esa empresa desde hace 3 años</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>667670384</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>51</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Zamora</t>
-        </is>
+        <v>264</v>
+      </c>
+      <c r="B12" t="n">
+        <v>40811</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SH NOROESTE</t>
+          <t>52967936V</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Eduardo Alonso</t>
+          <t>Zona 4 (Centro)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>eduardo.alonso@scania.com</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>987346451</v>
+          <t>Hair Shop</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>682699441</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>David Fayos</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>david.fayos@scania.com</t>
+        <v>2022</v>
+      </c>
+      <c r="I12" t="n">
+        <v>44866</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PACO</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>987346451</t>
-        </is>
-      </c>
-      <c r="M12" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="n">
-        <v>20</v>
+          <t>ESTEFANIA</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>628993428</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7</v>
       </c>
       <c r="O12" t="inlineStr">
+        <is>
+          <t>NO CONTESTA</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>628993428</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
@@ -1278,244 +1322,292 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Burgos</t>
-        </is>
+        <v>265</v>
+      </c>
+      <c r="B13" t="n">
+        <v>40678</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BODY&amp;TRUCK</t>
+          <t>09448362P</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ismael Heras</t>
+          <t>Zona 7 (Televentas)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ismael.heras@bodyandtruck.com</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>947480033</v>
+          <t>La Magia De Samaila</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>952179495</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Antonio Sanchez</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>antonio.sanchez@bodyandtruck.com</t>
+        <v>2022</v>
+      </c>
+      <c r="I13" t="n">
+        <v>44866</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DANIEL</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>947480033</t>
-        </is>
-      </c>
-      <c r="M13" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="n">
-        <v>20</v>
+          <t>RODRIGUEZ ARBAS</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>657864157</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>CIERRE DE EMPRESA</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hacen envíos a través de otra cuenta </t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>657864157</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Ciudad Real</t>
-        </is>
+        <v>266</v>
+      </c>
+      <c r="B14" t="n">
+        <v>40936</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>R.PEINADO</t>
+          <t>45914711H</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>JORGE MARTÍN</t>
+          <t>Zona 7 (Televentas)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>jorge.martin@rpeinado.com</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>670434813</v>
+          <t>Sara Benito Martinez</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G14" t="n">
-        <v>616686909</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ALFONSO LABIÁN</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>alfonso.labian@rpeinado.com</t>
+        <v>2022</v>
+      </c>
+      <c r="I14" t="n">
+        <v>44896</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>SARA</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Oscar Martinez</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>670434813</t>
-        </is>
-      </c>
-      <c r="M14" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="n">
-        <v>20</v>
+          <t>BENITO MARTINEZ</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>605495247</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>CONTESTADOR AUTOMATICO</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>605495247</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>35</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Murcia</t>
-        </is>
+        <v>267</v>
+      </c>
+      <c r="B15" t="n">
+        <v>41264</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SCALEVANTE</t>
+          <t>23046392R</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Javier Espinosa</t>
+          <t>Zona 5 (Levante)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>jespinosa@scalevante.com</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>629467596</v>
+          <t>Miguel Ángel Escolar Garcia</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G15" t="n">
-        <v>35191619958</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Eloy Verdu</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>everdu@scalevante.com</t>
+        <v>2023</v>
+      </c>
+      <c r="I15" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>MIGUEL ÁNGEL</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Oscar Martinez</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>629467596</t>
-        </is>
-      </c>
-      <c r="M15" s="12" t="n">
+          <t>ESCOLAR GARCIA</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>868619351</v>
+      </c>
+      <c r="M15" t="n">
         <v>5</v>
       </c>
-      <c r="N15" t="n">
-        <v>20</v>
-      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NUEVA COMERCIAL YA HABLÓ CON ELLOS Y EL CLIENTE SE LO EXPLICÓ Y NO LE RESPETA EL PRECIO Y AHORA NO LES INTERESA, SI SE LE OFRECE EL MISMO PRECIO QUE SE LE HIZO INICIALMENTE
+TELÉFONO ATENCIÓN AL CLIENTE PARA LAS EMPRESAS PERSONALIZADO, ES IMPOSIBLE TENER UNA SOLUCIÓN
+NO LE LLEGABAN AL REPARTIDOR LAS SOLICITUDES DE RECOGIDA O ESO DECÍA
+</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>868619351</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>44</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Soria</t>
-        </is>
+        <v>268</v>
+      </c>
+      <c r="B16" t="n">
+        <v>41089</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BODY&amp;TRUCK</t>
+          <t>B01724145</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ISMAEL HERAS</t>
+          <t>Zona 3 (Noreste)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ismael.heras@bodyandtruck.com</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>619305180</v>
+          <t>Le Cruel</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>616686909</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Antonio Sanchez</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>antonio.sanchez@bodyandtruck.com</t>
+        <v>2023</v>
+      </c>
+      <c r="I16" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>BELEN</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>619305180</t>
-        </is>
-      </c>
-      <c r="M16" s="13" t="n">
-        <v>0</v>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>659088673</v>
+      </c>
+      <c r="M16" t="n">
+        <v>10</v>
       </c>
       <c r="O16" t="inlineStr">
+        <is>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>TASA ALTA DE PÉRDIDAS
+LES HAN ROBADO Y DE FALLOS ES MUY ALTA
+ATENCIÓN AL CLIENTE MALISIMA LA HORA DE SOLUCIONARLO NO SE HA IMPLICADO NADIE
+LAS SUBCONTRATAS SON PÉSIMAS Y MALEDUCADOS</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>659088673</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
@@ -1523,58 +1615,74 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>45</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Tarragona</t>
-        </is>
+        <v>269</v>
+      </c>
+      <c r="B17" t="n">
+        <v>41729</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>T.RAPALO</t>
+          <t>B05422639</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AGUSTIN IRIARTE</t>
+          <t>Zona 7 (Televentas)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>agustin.idiarte@talleresrapalo.es</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>650434228</v>
+          <t>Land Of Nature</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G17" t="n">
-        <v>608380596</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>AGUSTIN IRIARTE</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>agustin.idiarte@talleresrapalo.es</t>
+        <v>2023</v>
+      </c>
+      <c r="I17" t="n">
+        <v>44986</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>NELSON</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>650434228</t>
-        </is>
-      </c>
-      <c r="M17" s="13" t="n">
-        <v>0</v>
+          <t>GARCIA</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>951480771</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
       </c>
       <c r="O17" t="inlineStr">
+        <is>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>solo ha habido una incidencia con una recogida en la que por error el repartidor marco como urgente dos paquetes y un pallet completo cuando solo eran urgentes los dos paquetes.
+Se le cobró todo como urgente y reclamaron pero nadie les ha dado ninguna solución, se le ha dicho que no hay solución 
+trabajan con ontime</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>951480771</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
@@ -1582,55 +1690,72 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>34</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Málaga</t>
-        </is>
+        <v>270</v>
+      </c>
+      <c r="B18" t="n">
+        <v>41068</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SH SURESTE</t>
+          <t>B72150238</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cristina Molero</t>
+          <t>Zona 6 (Sur)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>cristina.molero@scania.com</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>952179495</v>
+          <t>Iml World Car S. Xxi, S.L.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G18" t="n">
-        <v>669262101</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Francisco Molina</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>francisco.molina@scania.com</t>
+        <v>2023</v>
+      </c>
+      <c r="I18" t="n">
+        <v>44986</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>IML WORLD CAR S. XXI</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Oscar Martinez</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>952179495</t>
-        </is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>956109880</v>
+      </c>
+      <c r="M18" t="n">
+        <v>66</v>
       </c>
       <c r="O18" t="inlineStr">
+        <is>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>ROTURAS Y RETRASOS EN LAS ENTREGAS DE 1 SEMANA DE RETRASO</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>956109880</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
@@ -1638,55 +1763,67 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
+        <v>271</v>
+      </c>
+      <c r="B19" t="n">
+        <v>41757</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SCALEVANTE</t>
+          <t>B95437810</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>David Ferri</t>
+          <t>Zona 2 (Norte)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>dferri@scalevante.com</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>606372773</v>
+          <t>Infobibliotecas</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>987346451</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Eloy Verdu</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>everdu@scalevante.com</t>
+        <v>2023</v>
+      </c>
+      <c r="I19" t="n">
+        <v>44986</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>OIHANE</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Oscar Martinez</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>606372773</t>
-        </is>
+          <t>ESTEBAN</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>986090806</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
       </c>
       <c r="O19" t="inlineStr">
+        <is>
+          <t>NO CONTESTA</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>986090806</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
@@ -1694,55 +1831,73 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Castellón</t>
-        </is>
+        <v>272</v>
+      </c>
+      <c r="B20" t="n">
+        <v>41824</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>T.RAPALO</t>
+          <t>B88415427</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>XIMO BARBERÁ</t>
+          <t>Zona 4 (Centro)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ximo.barbera@talleresrapalo.es</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>696895733</v>
+          <t>Casa Gusmao</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G20" t="n">
-        <v>678714482</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Enrique Ortiz</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>enrique.ortiz@talleresrapalo.es</t>
+        <v>2023</v>
+      </c>
+      <c r="I20" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>MISAEL</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>696895733</t>
-        </is>
+          <t>DE GUSMAO</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>663250578</v>
+      </c>
+      <c r="M20" t="n">
+        <v>74</v>
       </c>
       <c r="O20" t="inlineStr">
+        <is>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>6 MESES HACE QUE HA RECLAMADO LAS FACTURAS DE ENTREGAS QUE NO SE HAN REALIZADO
+EL REPARTIDOR HA PUESTO UNA INCIDENCIA EN UNA ENTREGA QUE ES MENTIRA</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>663250578</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
@@ -1750,55 +1905,75 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>52</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Zaragoza</t>
-        </is>
+        <v>273</v>
+      </c>
+      <c r="B21" t="n">
+        <v>42061</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SH CENTRO-CANARIAS</t>
+          <t>44859654V</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>JAVIER GARCÍA</t>
+          <t>Zona 5 (Levante)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>javier.garcia.jorge@scania.com</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>193051803</v>
+          <t>Luis Arce Miñana</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>606372773</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>JAVIER GÓMEZ</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>javier.gomez@scania.com</t>
+        <v>2023</v>
+      </c>
+      <c r="I21" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>LUIS</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Raul Herranz</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>193051803</t>
-        </is>
+          <t>ARCE MIÑANA</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>687730832</v>
+      </c>
+      <c r="M21" t="n">
+        <v>20</v>
       </c>
       <c r="O21" t="inlineStr">
+        <is>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>HABÍA VECES QUE NO PASABAN A RECOGER 
+NO TENÍA CON QUIÉN PONERSE EN CONTACTO EN MADRID PARA CUALQUIER INCIDENCIA, ATENCIÓN DIRECTA CON NADIE PARA PODER SOLUCIONARLO
+DHL Y GLS
+UN ENVÍO A LUGO DE 3 BULTOS QUE HUBO INCIDENCIA Y LE DEVOLVIMOS 2 BULTOS TODAVÍA ESTA A LA ESPERA DE 1</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>687730832</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
@@ -1806,55 +1981,894 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>26</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>La Coruña</t>
-        </is>
+        <v>274</v>
+      </c>
+      <c r="B22" t="n">
+        <v>42274</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SH NOROESTE</t>
+          <t>32066340Q</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Diego Alonso</t>
+          <t>Zona 6 (Sur)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>diego.alonso@scania.com</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>682699441</v>
+          <t>Mia Fernandez</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
       </c>
       <c r="G22" t="n">
-        <v>660785264</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Jorge Luis Alonso Abella</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>jorge.alonso@scania.com</t>
+        <v>2023</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45047</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>MIA</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Diego Gutierrez</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>682699441</t>
-        </is>
+          <t>FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>856155110</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
       </c>
       <c r="O22" t="inlineStr">
+        <is>
+          <t>CONTESTADOR AUTOMATICO</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>856155110</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>275</v>
+      </c>
+      <c r="B23" t="n">
+        <v>42385</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>B02795961</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Zona 7 (Televentas)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Gestion Omnicanal</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I23" t="n">
+        <v>45078</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>JULIAN</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ARANCIAL</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>621184978</v>
+      </c>
+      <c r="M23" t="n">
+        <v>24</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>NO CONTESTA</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>621184978</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>276</v>
+      </c>
+      <c r="B24" t="n">
+        <v>43160</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>29488611N</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Zona 6 (Sur)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Tienda Trucos De Magia</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45200</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>LEOPOLDO</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>RAMIREZ ALMEDIA</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>665581045</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>NO CONTESTA</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>665581045</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>278</v>
+      </c>
+      <c r="B25" t="n">
+        <v>43167</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>34866798V</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Zona 6 (Sur)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Fruteria Los Agricultores</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I25" t="n">
+        <v>45261</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>BENITA</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ALFAR</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>618338560</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>NO INTERES</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>618338560</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>279</v>
+      </c>
+      <c r="B26" t="n">
+        <v>43392</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>B16963969</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Zona 3 (Noreste)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Solesfarma</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I26" t="n">
+        <v>45261</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>JORGE</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>JIMENEZ</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>619729769</v>
+      </c>
+      <c r="M26" t="n">
+        <v>33</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>CONTESTADOR AUTOMATICO</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>619729769</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>280</v>
+      </c>
+      <c r="B27" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>52506242W</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Zona 7 (Televentas)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Torolandia</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I27" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ANDRÉS MANUEL</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>FERNÁNDEZ CONEJO</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>610771770</v>
+      </c>
+      <c r="M27" t="n">
+        <v>19</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>CONTESTADOR AUTOMATICO</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>610771770</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>282</v>
+      </c>
+      <c r="B28" t="n">
+        <v>43596</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B97319131</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Zona 5 (Levante)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>General De Ediciones De Arquitectura Sl.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I28" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>963950443</v>
+      </c>
+      <c r="M28" t="n">
+        <v>13</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>963950443</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>283</v>
+      </c>
+      <c r="B29" t="n">
+        <v>43780</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>E54430871</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Zona 5 (Levante)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Turkana Fishing Cb</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I29" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>CRISTIAN</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>966752144</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>PRECIO EN VOLUMEN MÁS CARO QUE CON LA OTRA AGENCIA DE TRANSPORTES CON LA QUE TRABAJAN AHORA</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>966752144</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>284</v>
+      </c>
+      <c r="B30" t="n">
+        <v>43586</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>30803717R</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Zona 6 (Sur)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Jesus Molina Tellez</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I30" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>JESUS</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>MOLINA TELLEZ</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>957034602</v>
+      </c>
+      <c r="M30" t="n">
+        <v>93</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>LOS MÓDULOS DEJARON DE FUNCIONAR POR UN ATAQUE INFORMÁTICO Y POR ELLO COPIAR Y PEGAR 30 ENVÍOS DIARIOS ES MUY COMPLICADO, DESDE FEBRERO ESTABAN CON EL PROBLEMA Y EN JUNIO COMO NO SE SOLUCIONO DESPUES DE RECLAMAR EN 2 OCASIONES, DEJARON DE REALIZAR LOS ENVÍOS CON NOSOTROS 
+EN LOS ENVÍOS NO SE REGISTRABA EL NIF Y A LA HORA DE RECLAMAR EL ENVIO NO LO PODÍAN LOCALIZAR Y SE LO COBRABAN IGUAL</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>957034602</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>285</v>
+      </c>
+      <c r="B31" t="n">
+        <v>43978</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>76433798Z</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Zona 6 (Sur)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Pitucas Moda</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I31" t="n">
+        <v>45323</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>BEATRIZ</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>CASTILLO LOZANO</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>616685992</v>
+      </c>
+      <c r="M31" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>616685992</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>286</v>
+      </c>
+      <c r="B32" t="n">
+        <v>43809</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>52792179A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Zona 5 (Levante)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Tintaciss</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I32" t="n">
+        <v>45323</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>SERGIO</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ALEIXANDRE GIMÉNEZ</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>964920617</v>
+      </c>
+      <c r="M32" t="n">
+        <v>17</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>NO CONTESTA</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>964920617</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>287</v>
+      </c>
+      <c r="B33" t="n">
+        <v>44067</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>B24664641</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Zona 1 (Noroeste)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Verdis Nature</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I33" t="n">
+        <v>45352</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>BERMEJO MARTINEZ</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>987100123</v>
+      </c>
+      <c r="M33" t="n">
+        <v>38</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>ILOCALIZABLE</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>987100123</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>288</v>
+      </c>
+      <c r="B34" t="n">
+        <v>44070</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>53790462V</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Zona 5 (Levante)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Nexolium</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I34" t="n">
+        <v>45352</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PEDRO</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>VIVES</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>641516106</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>CIERRE DE EMPRESA</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>EMPRESA VENDIDA</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>641516106</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>

--- a/mi_proyecto_web/uploads/resultados_Scoring.xlsx
+++ b/mi_proyecto_web/uploads/resultados_Scoring.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,6 +907,1973 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>259</v>
+      </c>
+      <c r="B7" t="n">
+        <v>32044</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B42692731</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Zona 5 (Levante)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pharma Shoes Iberia, S.L. - Scholl</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I7" t="n">
+        <v>44593</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PEDRO</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ANTONIO</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>965279669</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>ILOCALIZABLE</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>965279669</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>260</v>
+      </c>
+      <c r="B8" t="n">
+        <v>32886</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>46856327Z</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Zona 4 (Centro)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Almacenelectricidad.Com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I8" t="n">
+        <v>44682</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>FERNANDO</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>AGUADO</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>626280012</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>CONTESTADOR AUTOMATICO</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>626280012</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>261</v>
+      </c>
+      <c r="B9" t="n">
+        <v>33316</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B21450523</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Zona 6 (Sur)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Enuc</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I9" t="n">
+        <v>44743</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>JUAN ANTONIO</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>RAMOS</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>603217655</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>TELEFONO ERRONEO</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>603217655</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>262</v>
+      </c>
+      <c r="B10" t="n">
+        <v>33176</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B01759141</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Zona 5 (Levante)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Jjprime Online</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I10" t="n">
+        <v>44743</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ALFREDO</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>JARA ROBLES</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>693833653</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>NO CONTESTA</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>693833653</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>263</v>
+      </c>
+      <c r="B11" t="n">
+        <v>40379</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B54278825</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Zona 5 (Levante)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40 Grados Lenceria S.L</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I11" t="n">
+        <v>44805</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PEDRO</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>667670384</v>
+      </c>
+      <c r="M11" t="n">
+        <v>206</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>TELEFONO ERRONEO</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>ya no trabaja en esa empresa desde hace 3 años</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>667670384</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>264</v>
+      </c>
+      <c r="B12" t="n">
+        <v>40811</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>52967936V</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Zona 4 (Centro)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Hair Shop</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I12" t="n">
+        <v>44866</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PACO</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ESTEFANIA</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>628993428</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>NO CONTESTA</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>628993428</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>265</v>
+      </c>
+      <c r="B13" t="n">
+        <v>40678</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>09448362P</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Zona 7 (Televentas)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>La Magia De Samaila</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I13" t="n">
+        <v>44866</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DANIEL</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>RODRIGUEZ ARBAS</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>657864157</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>CIERRE DE EMPRESA</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hacen envíos a través de otra cuenta </t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>657864157</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>266</v>
+      </c>
+      <c r="B14" t="n">
+        <v>40936</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>45914711H</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Zona 7 (Televentas)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Sara Benito Martinez</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I14" t="n">
+        <v>44896</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>SARA</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>BENITO MARTINEZ</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>605495247</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>CONTESTADOR AUTOMATICO</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>605495247</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>267</v>
+      </c>
+      <c r="B15" t="n">
+        <v>41264</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>23046392R</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Zona 5 (Levante)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Miguel Ángel Escolar Garcia</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I15" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>MIGUEL ÁNGEL</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ESCOLAR GARCIA</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>868619351</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NUEVA COMERCIAL YA HABLÓ CON ELLOS Y EL CLIENTE SE LO EXPLICÓ Y NO LE RESPETA EL PRECIO Y AHORA NO LES INTERESA, SI SE LE OFRECE EL MISMO PRECIO QUE SE LE HIZO INICIALMENTE
+TELÉFONO ATENCIÓN AL CLIENTE PARA LAS EMPRESAS PERSONALIZADO, ES IMPOSIBLE TENER UNA SOLUCIÓN
+NO LE LLEGABAN AL REPARTIDOR LAS SOLICITUDES DE RECOGIDA O ESO DECÍA
+</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>868619351</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>268</v>
+      </c>
+      <c r="B16" t="n">
+        <v>41089</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B01724145</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Zona 3 (Noreste)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Le Cruel</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I16" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>BELEN</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>659088673</v>
+      </c>
+      <c r="M16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>TASA ALTA DE PÉRDIDAS
+LES HAN ROBADO Y DE FALLOS ES MUY ALTA
+ATENCIÓN AL CLIENTE MALISIMA LA HORA DE SOLUCIONARLO NO SE HA IMPLICADO NADIE
+LAS SUBCONTRATAS SON PÉSIMAS Y MALEDUCADOS</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>659088673</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>269</v>
+      </c>
+      <c r="B17" t="n">
+        <v>41729</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B05422639</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Zona 7 (Televentas)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Land Of Nature</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I17" t="n">
+        <v>44986</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>NELSON</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>GARCIA</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>951480771</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>solo ha habido una incidencia con una recogida en la que por error el repartidor marco como urgente dos paquetes y un pallet completo cuando solo eran urgentes los dos paquetes.
+Se le cobró todo como urgente y reclamaron pero nadie les ha dado ninguna solución, se le ha dicho que no hay solución 
+trabajan con ontime</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>951480771</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>270</v>
+      </c>
+      <c r="B18" t="n">
+        <v>41068</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>B72150238</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Zona 6 (Sur)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Iml World Car S. Xxi, S.L.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I18" t="n">
+        <v>44986</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>IML WORLD CAR S. XXI</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>956109880</v>
+      </c>
+      <c r="M18" t="n">
+        <v>66</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>ROTURAS Y RETRASOS EN LAS ENTREGAS DE 1 SEMANA DE RETRASO</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>956109880</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>271</v>
+      </c>
+      <c r="B19" t="n">
+        <v>41757</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>B95437810</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Zona 2 (Norte)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Infobibliotecas</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I19" t="n">
+        <v>44986</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>OIHANE</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ESTEBAN</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>986090806</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>NO CONTESTA</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>986090806</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>272</v>
+      </c>
+      <c r="B20" t="n">
+        <v>41824</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>B88415427</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Zona 4 (Centro)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Casa Gusmao</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I20" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>MISAEL</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>DE GUSMAO</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>663250578</v>
+      </c>
+      <c r="M20" t="n">
+        <v>74</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>6 MESES HACE QUE HA RECLAMADO LAS FACTURAS DE ENTREGAS QUE NO SE HAN REALIZADO
+EL REPARTIDOR HA PUESTO UNA INCIDENCIA EN UNA ENTREGA QUE ES MENTIRA</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>663250578</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>273</v>
+      </c>
+      <c r="B21" t="n">
+        <v>42061</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>44859654V</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Zona 5 (Levante)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Luis Arce Miñana</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I21" t="n">
+        <v>45017</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>LUIS</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ARCE MIÑANA</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>687730832</v>
+      </c>
+      <c r="M21" t="n">
+        <v>20</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>HABÍA VECES QUE NO PASABAN A RECOGER 
+NO TENÍA CON QUIÉN PONERSE EN CONTACTO EN MADRID PARA CUALQUIER INCIDENCIA, ATENCIÓN DIRECTA CON NADIE PARA PODER SOLUCIONARLO
+DHL Y GLS
+UN ENVÍO A LUGO DE 3 BULTOS QUE HUBO INCIDENCIA Y LE DEVOLVIMOS 2 BULTOS TODAVÍA ESTA A LA ESPERA DE 1</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>687730832</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>274</v>
+      </c>
+      <c r="B22" t="n">
+        <v>42274</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>32066340Q</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Zona 6 (Sur)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Mia Fernandez</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45047</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>856155110</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>CONTESTADOR AUTOMATICO</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>856155110</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>275</v>
+      </c>
+      <c r="B23" t="n">
+        <v>42385</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>B02795961</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Zona 7 (Televentas)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Gestion Omnicanal</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I23" t="n">
+        <v>45078</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>JULIAN</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ARANCIAL</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>621184978</v>
+      </c>
+      <c r="M23" t="n">
+        <v>24</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>NO CONTESTA</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>621184978</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>276</v>
+      </c>
+      <c r="B24" t="n">
+        <v>43160</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>29488611N</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Zona 6 (Sur)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Tienda Trucos De Magia</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45200</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>LEOPOLDO</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>RAMIREZ ALMEDIA</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>665581045</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>NO CONTESTA</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>665581045</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>278</v>
+      </c>
+      <c r="B25" t="n">
+        <v>43167</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>34866798V</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Zona 6 (Sur)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Fruteria Los Agricultores</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I25" t="n">
+        <v>45261</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>BENITA</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ALFAR</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>618338560</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>NO INTERES</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>618338560</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>279</v>
+      </c>
+      <c r="B26" t="n">
+        <v>43392</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>B16963969</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Zona 3 (Noreste)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Solesfarma</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I26" t="n">
+        <v>45261</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>JORGE</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>JIMENEZ</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>619729769</v>
+      </c>
+      <c r="M26" t="n">
+        <v>33</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>CONTESTADOR AUTOMATICO</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>619729769</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>280</v>
+      </c>
+      <c r="B27" t="n">
+        <v>43704</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>52506242W</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Zona 7 (Televentas)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Torolandia</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I27" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ANDRÉS MANUEL</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>FERNÁNDEZ CONEJO</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>610771770</v>
+      </c>
+      <c r="M27" t="n">
+        <v>19</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>CONTESTADOR AUTOMATICO</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>610771770</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>282</v>
+      </c>
+      <c r="B28" t="n">
+        <v>43596</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B97319131</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Zona 5 (Levante)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>General De Ediciones De Arquitectura Sl.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I28" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>JAIME</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>963950443</v>
+      </c>
+      <c r="M28" t="n">
+        <v>13</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>963950443</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>283</v>
+      </c>
+      <c r="B29" t="n">
+        <v>43780</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>E54430871</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Zona 5 (Levante)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Turkana Fishing Cb</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I29" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>CRISTIAN</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>966752144</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>PRECIO EN VOLUMEN MÁS CARO QUE CON LA OTRA AGENCIA DE TRANSPORTES CON LA QUE TRABAJAN AHORA</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>966752144</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>284</v>
+      </c>
+      <c r="B30" t="n">
+        <v>43586</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>30803717R</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Zona 6 (Sur)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Jesus Molina Tellez</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I30" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>JESUS</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>MOLINA TELLEZ</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>957034602</v>
+      </c>
+      <c r="M30" t="n">
+        <v>93</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>ENCUESTA REALIZADA</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>LOS MÓDULOS DEJARON DE FUNCIONAR POR UN ATAQUE INFORMÁTICO Y POR ELLO COPIAR Y PEGAR 30 ENVÍOS DIARIOS ES MUY COMPLICADO, DESDE FEBRERO ESTABAN CON EL PROBLEMA Y EN JUNIO COMO NO SE SOLUCIONO DESPUES DE RECLAMAR EN 2 OCASIONES, DEJARON DE REALIZAR LOS ENVÍOS CON NOSOTROS 
+EN LOS ENVÍOS NO SE REGISTRABA EL NIF Y A LA HORA DE RECLAMAR EL ENVIO NO LO PODÍAN LOCALIZAR Y SE LO COBRABAN IGUAL</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>957034602</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>285</v>
+      </c>
+      <c r="B31" t="n">
+        <v>43978</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>76433798Z</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Zona 6 (Sur)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Pitucas Moda</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I31" t="n">
+        <v>45323</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>BEATRIZ</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>CASTILLO LOZANO</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>616685992</v>
+      </c>
+      <c r="M31" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>616685992</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>286</v>
+      </c>
+      <c r="B32" t="n">
+        <v>43809</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>52792179A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Zona 5 (Levante)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Tintaciss</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I32" t="n">
+        <v>45323</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>SERGIO</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ALEIXANDRE GIMÉNEZ</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>964920617</v>
+      </c>
+      <c r="M32" t="n">
+        <v>17</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>NO CONTESTA</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>964920617</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>287</v>
+      </c>
+      <c r="B33" t="n">
+        <v>44067</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>B24664641</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Zona 1 (Noroeste)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Verdis Nature</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I33" t="n">
+        <v>45352</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>BERMEJO MARTINEZ</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>987100123</v>
+      </c>
+      <c r="M33" t="n">
+        <v>38</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>ILOCALIZABLE</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>987100123</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>288</v>
+      </c>
+      <c r="B34" t="n">
+        <v>44070</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>53790462V</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Zona 5 (Levante)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Nexolium</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sme</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I34" t="n">
+        <v>45352</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PEDRO</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>VIVES</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>641516106</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>CIERRE DE EMPRESA</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>EMPRESA VENDIDA</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>641516106</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
